--- a/00_Organsiatorisches/Shots.xlsx
+++ b/00_Organsiatorisches/Shots.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maike\Desktop\Pixie\00_Organsiatorisches\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="48" windowWidth="22116" windowHeight="9552"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22110" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>#1</t>
   </si>
@@ -90,9 +95,6 @@
     <t>Fallen in Urwald</t>
   </si>
   <si>
-    <t>Umschauen in Urwald + Minion sehen</t>
-  </si>
-  <si>
     <t>Auf Minion zugehen</t>
   </si>
   <si>
@@ -105,9 +107,6 @@
     <t>Auftritt Dino</t>
   </si>
   <si>
-    <t>Flucht vor Dino</t>
-  </si>
-  <si>
     <t>Sprung ins Wasser</t>
   </si>
   <si>
@@ -127,13 +126,16 @@
   </si>
   <si>
     <t>Planung Frames und Filmzeit</t>
+  </si>
+  <si>
+    <t>Flucht vor Dino &amp; Sprung ins Wasser</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,7 +167,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,6 +195,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -238,40 +246,52 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -309,9 +329,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -343,9 +363,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -377,9 +398,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -552,33 +574,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="1"/>
-    <col min="2" max="2" width="37.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.5546875" style="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="11.5703125" style="1"/>
+    <col min="2" max="2" width="37.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.5703125" style="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>20</v>
@@ -590,10 +612,10 @@
         <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
@@ -607,11 +629,11 @@
       <c r="D6" s="6">
         <v>8</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
@@ -625,162 +647,162 @@
       <c r="D7" s="6">
         <v>3</v>
       </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="5" t="s">
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="6">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="D8" s="6">
-        <v>2</v>
-      </c>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="8" t="s">
+      <c r="C8" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="D9" s="8">
+        <v>3</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C10" s="8">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D10" s="8">
         <v>3</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="8" t="s">
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="D11" s="8">
+        <v>3</v>
+      </c>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="D12" s="8">
+        <v>5</v>
+      </c>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="10">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="D13" s="10">
+        <v>3</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="10">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="D14" s="10">
         <v>4</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="9">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="D10" s="9">
-        <v>4</v>
-      </c>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0</v>
+      </c>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="10">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D16" s="10">
         <v>3</v>
       </c>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="9">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="D12" s="9">
-        <v>5</v>
-      </c>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="12">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="D13" s="12">
-        <v>5</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="12">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="D14" s="12">
-        <v>3</v>
-      </c>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="12">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="D15" s="12">
-        <v>2</v>
-      </c>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="12">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="D16" s="12">
-        <v>3</v>
-      </c>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" s="6">
         <f t="shared" si="0"/>
@@ -789,16 +811,16 @@
       <c r="D17" s="6">
         <v>3</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="6">
         <f t="shared" si="0"/>
@@ -807,14 +829,14 @@
       <c r="D18" s="6">
         <v>3</v>
       </c>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" s="6">
         <f t="shared" si="0"/>
@@ -823,16 +845,16 @@
       <c r="D19" s="6">
         <v>2</v>
       </c>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="C20" s="14">
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="11">
         <f>SUM(C6:C19)</f>
-        <v>1470</v>
+        <v>1290</v>
       </c>
       <c r="D20" s="2">
         <f>SUM(D6:D19)</f>
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -848,24 +870,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/00_Organsiatorisches/Shots.xlsx
+++ b/00_Organsiatorisches/Shots.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maike\Desktop\Pixie\00_Organsiatorisches\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22110" windowHeight="9555"/>
+    <workbookView xWindow="480" yWindow="48" windowWidth="22116" windowHeight="9552"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>#1</t>
   </si>
@@ -71,15 +66,6 @@
     <t>Sekunden</t>
   </si>
   <si>
-    <t>Noélle</t>
-  </si>
-  <si>
-    <t>Maike</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
     <t>Pixie's großes Abenteuer</t>
   </si>
   <si>
@@ -95,18 +81,9 @@
     <t>Fallen in Urwald</t>
   </si>
   <si>
-    <t>Auf Minion zugehen</t>
-  </si>
-  <si>
     <t>Minion erschreckt  &amp; rennt weg</t>
   </si>
   <si>
-    <t>Verfolgung Minion</t>
-  </si>
-  <si>
-    <t>Auftritt Dino</t>
-  </si>
-  <si>
     <t>Sprung ins Wasser</t>
   </si>
   <si>
@@ -122,20 +99,65 @@
     <t>Banane fällt</t>
   </si>
   <si>
-    <t>Aufgabe von</t>
-  </si>
-  <si>
     <t>Planung Frames und Filmzeit</t>
   </si>
   <si>
-    <t>Flucht vor Dino &amp; Sprung ins Wasser</t>
+    <t>Renderzeit pro Frame</t>
+  </si>
+  <si>
+    <t>Renderzeit pro Shot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerendert </t>
+  </si>
+  <si>
+    <t>Auf Minion zugehen und Minon rennt weg</t>
+  </si>
+  <si>
+    <t>Verfolgung Minion Eye-P. Pixie</t>
+  </si>
+  <si>
+    <t>Auftritt Dino Eye-P. Pixie</t>
+  </si>
+  <si>
+    <t>Flucht vor Dino, Sprung ins Wasser, Fall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rendert über Nacht </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Maike rendert Shot 8 die letzten Frames (so 20-30)</t>
+  </si>
+  <si>
+    <t>Noelle rendert Shot 9 die letzten Frames (so 20-30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1280 x 720 </t>
+  </si>
+  <si>
+    <t>RGB 8</t>
+  </si>
+  <si>
+    <t>Sample 300</t>
+  </si>
+  <si>
+    <t>Vorraussichtlich fertig gerendert</t>
+  </si>
+  <si>
+    <t>Dienstag</t>
+  </si>
+  <si>
+    <t>Light Path Bounces Max 4 Min 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,7 +189,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,6 +226,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -232,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -258,17 +286,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -289,9 +312,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -329,9 +352,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,10 +386,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -398,10 +420,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -574,36 +595,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1"/>
-    <col min="2" max="2" width="37.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.5703125" style="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="1" width="11.5546875" style="1"/>
+    <col min="2" max="2" width="49.33203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.5546875" style="1"/>
+    <col min="5" max="5" width="21.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18">
       <c r="A1" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>14</v>
@@ -611,16 +636,25 @@
       <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" s="6">
         <f>D6*30</f>
@@ -629,16 +663,23 @@
       <c r="D6" s="6">
         <v>8</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="1">
+        <v>51</v>
+      </c>
+      <c r="F6" s="1">
+        <f>(E6*C6)/60/60</f>
+        <v>3.4</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" s="6">
         <f t="shared" ref="C7:C19" si="0">D7*30</f>
@@ -647,30 +688,38 @@
       <c r="D7" s="6">
         <v>3</v>
       </c>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="E7" s="1">
+        <v>70</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" ref="F7:F19" si="1">(E7*C7)/60/60</f>
+        <v>1.75</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="17">
+      <c r="B8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="14">
         <v>0</v>
       </c>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" s="8">
         <f t="shared" si="0"/>
@@ -679,130 +728,193 @@
       <c r="D9" s="8">
         <v>3</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="1">
+        <v>180</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="G9" s="1">
+        <f>F90</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C10" s="8">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D10" s="8">
-        <v>3</v>
-      </c>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="8">
+      <c r="E10" s="1">
+        <v>300</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" ref="G7:G19" si="2">F10</f>
+        <v>12.5</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="16">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="16">
         <v>3</v>
       </c>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C12" s="8">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="D12" s="8">
-        <v>5</v>
-      </c>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1">
+        <v>300</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C13" s="10">
+        <v>120</v>
+      </c>
+      <c r="D13" s="10">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>600</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="10">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D14" s="10">
         <v>3</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="E14" s="1">
+        <v>600</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="10">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="D14" s="10">
-        <v>4</v>
-      </c>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="17">
+      <c r="B15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="14">
         <v>0</v>
       </c>
-      <c r="E15" s="15"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="10">
+      <c r="B16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="16">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="16">
         <v>3</v>
       </c>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C17" s="6">
         <f t="shared" si="0"/>
@@ -811,16 +923,23 @@
       <c r="D17" s="6">
         <v>3</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="1">
+        <v>90</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C18" s="6">
         <f t="shared" si="0"/>
@@ -829,14 +948,23 @@
       <c r="D18" s="6">
         <v>3</v>
       </c>
-      <c r="E18" s="13"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="1">
+        <v>60</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C19" s="6">
         <f t="shared" si="0"/>
@@ -845,49 +973,94 @@
       <c r="D19" s="6">
         <v>2</v>
       </c>
-      <c r="E19" s="13"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="1">
+        <v>40</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="C20" s="11">
         <f>SUM(C6:C19)</f>
-        <v>1290</v>
+        <v>1380</v>
       </c>
       <c r="D20" s="2">
         <f>SUM(D6:D19)</f>
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="E20" s="1">
+        <f>SUM(E6:E19)</f>
+        <v>2291</v>
+      </c>
+      <c r="F20" s="1">
+        <f>SUM(F6:F19)</f>
+        <v>76.566666666666677</v>
+      </c>
+      <c r="G20" s="1">
+        <f>SUM(G6:G19)</f>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="B27" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="B29" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="B30" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="E17:E19"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/00_Organsiatorisches/Shots.xlsx
+++ b/00_Organsiatorisches/Shots.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maike\Desktop\Pixie\00_Organsiatorisches\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="48" windowWidth="22116" windowHeight="9552"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22110" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>#1</t>
   </si>
@@ -108,9 +113,6 @@
     <t>Renderzeit pro Shot</t>
   </si>
   <si>
-    <t xml:space="preserve">Gerendert </t>
-  </si>
-  <si>
     <t>Auf Minion zugehen und Minon rennt weg</t>
   </si>
   <si>
@@ -123,18 +125,6 @@
     <t>Flucht vor Dino, Sprung ins Wasser, Fall</t>
   </si>
   <si>
-    <t xml:space="preserve">Rendert über Nacht </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Maike rendert Shot 8 die letzten Frames (so 20-30)</t>
-  </si>
-  <si>
-    <t>Noelle rendert Shot 9 die letzten Frames (so 20-30)</t>
-  </si>
-  <si>
     <t xml:space="preserve">1280 x 720 </t>
   </si>
   <si>
@@ -142,12 +132,6 @@
   </si>
   <si>
     <t>Sample 300</t>
-  </si>
-  <si>
-    <t>Vorraussichtlich fertig gerendert</t>
-  </si>
-  <si>
-    <t>Dienstag</t>
   </si>
   <si>
     <t>Light Path Bounces Max 4 Min 0</t>
@@ -156,8 +140,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,7 +173,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,13 +206,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.89999084444715716"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -286,12 +264,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -312,9 +287,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -352,9 +327,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -386,9 +361,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -420,9 +396,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -595,37 +572,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="1"/>
-    <col min="2" max="2" width="49.33203125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="11.5546875" style="1"/>
-    <col min="5" max="5" width="21.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31.109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="11.5703125" style="1"/>
+    <col min="2" max="2" width="49.28515625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.5703125" style="1"/>
+    <col min="5" max="5" width="21.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.140625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>17</v>
@@ -636,20 +613,14 @@
       <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
@@ -663,18 +634,15 @@
       <c r="D6" s="6">
         <v>8</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="13">
         <v>51</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="13">
         <f>(E6*C6)/60/60</f>
         <v>3.4</v>
       </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
@@ -688,33 +656,32 @@
       <c r="D7" s="6">
         <v>3</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="13">
         <v>70</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="13">
         <f t="shared" ref="F7:F19" si="1">(E7*C7)/60/60</f>
         <v>1.75</v>
       </c>
-      <c r="G7" s="1">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="15">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="14">
-        <f t="shared" si="0"/>
+      <c r="D8" s="15">
         <v>0</v>
       </c>
-      <c r="D8" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>3</v>
       </c>
@@ -728,27 +695,20 @@
       <c r="D9" s="8">
         <v>3</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="13">
         <v>180</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="13">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="G9" s="1">
-        <f>F90</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="8">
         <f t="shared" si="0"/>
@@ -757,45 +717,37 @@
       <c r="D10" s="8">
         <v>5</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="13">
         <v>300</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="13">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
-      <c r="G10" s="1">
-        <f t="shared" ref="G7:G19" si="2">F10</f>
-        <v>12.5</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="15" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="8">
         <f t="shared" si="0"/>
@@ -804,30 +756,20 @@
       <c r="D12" s="8">
         <v>6</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="13">
         <v>300</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="13">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G12" s="1">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="10">
         <v>120</v>
@@ -835,27 +777,20 @@
       <c r="D13" s="10">
         <v>4</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="13">
         <v>600</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="13">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G13" s="1">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="10">
         <f t="shared" si="0"/>
@@ -864,52 +799,49 @@
       <c r="D14" s="10">
         <v>3</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="13">
         <v>600</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="13">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G14" s="1">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="13" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="15" t="s">
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="15">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="15">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
@@ -923,18 +855,15 @@
       <c r="D17" s="6">
         <v>3</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="13">
         <v>90</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="13">
         <f t="shared" si="1"/>
         <v>2.25</v>
       </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>12</v>
       </c>
@@ -948,18 +877,15 @@
       <c r="D18" s="6">
         <v>3</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="13">
         <v>60</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="13">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
@@ -973,18 +899,15 @@
       <c r="D19" s="6">
         <v>2</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="13">
         <v>40</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="13">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" s="11">
         <f>SUM(C6:C19)</f>
         <v>1380</v>
@@ -993,47 +916,29 @@
         <f>SUM(D6:D19)</f>
         <v>46</v>
       </c>
-      <c r="E20" s="1">
-        <f>SUM(E6:E19)</f>
-        <v>2291</v>
-      </c>
-      <c r="F20" s="1">
+      <c r="F20" s="13">
         <f>SUM(F6:F19)</f>
         <v>76.566666666666677</v>
       </c>
-      <c r="G20" s="1">
-        <f>SUM(G6:G19)</f>
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="B24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="B25" s="1" t="s">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="B27" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="B28" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="B29" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="B30" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1043,24 +948,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/00_Organsiatorisches/Shots.xlsx
+++ b/00_Organsiatorisches/Shots.xlsx
@@ -173,7 +173,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,6 +210,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -238,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -269,6 +281,8 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -576,7 +590,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -613,10 +627,10 @@
       <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -634,10 +648,10 @@
       <c r="D6" s="6">
         <v>8</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="17">
         <v>51</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="17">
         <f>(E6*C6)/60/60</f>
         <v>3.4</v>
       </c>
@@ -656,10 +670,10 @@
       <c r="D7" s="6">
         <v>3</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="17">
         <v>70</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="17">
         <f t="shared" ref="F7:F19" si="1">(E7*C7)/60/60</f>
         <v>1.75</v>
       </c>
@@ -695,10 +709,10 @@
       <c r="D9" s="8">
         <v>3</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="7">
         <v>180</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="7">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
@@ -717,10 +731,10 @@
       <c r="D10" s="8">
         <v>5</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="7">
         <v>300</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="7">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
@@ -756,10 +770,10 @@
       <c r="D12" s="8">
         <v>6</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="7">
         <v>300</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="7">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -777,10 +791,10 @@
       <c r="D13" s="10">
         <v>4</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="9">
         <v>600</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="9">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -799,10 +813,10 @@
       <c r="D14" s="10">
         <v>3</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="9">
         <v>600</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="9">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -855,10 +869,10 @@
       <c r="D17" s="6">
         <v>3</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="5">
         <v>90</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="5">
         <f t="shared" si="1"/>
         <v>2.25</v>
       </c>
@@ -877,10 +891,10 @@
       <c r="D18" s="6">
         <v>3</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="5">
         <v>60</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="5">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
@@ -899,10 +913,10 @@
       <c r="D19" s="6">
         <v>2</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="5">
         <v>40</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="5">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>

--- a/00_Organsiatorisches/Shots.xlsx
+++ b/00_Organsiatorisches/Shots.xlsx
@@ -599,7 +599,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="15.6"/>
@@ -671,7 +671,8 @@
         <v>3.4</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <f t="shared" ref="G6:G19" si="0">F6</f>
+        <v>3.4</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -682,7 +683,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="6">
-        <f t="shared" ref="C7:C19" si="0">D7*30</f>
+        <f t="shared" ref="C7:C19" si="1">D7*30</f>
         <v>90</v>
       </c>
       <c r="D7" s="6">
@@ -692,11 +693,12 @@
         <v>70</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ref="F7:F19" si="1">(E7*C7)/60/60</f>
+        <f t="shared" ref="F7:F19" si="2">(E7*C7)/60/60</f>
         <v>1.75</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.75</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -707,10 +709,14 @@
         <v>20</v>
       </c>
       <c r="C8" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -722,7 +728,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="D9" s="8">
@@ -732,12 +738,12 @@
         <v>180</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="G9" s="1">
-        <f>F90</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4.5</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>36</v>
@@ -751,7 +757,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="D10" s="8">
@@ -761,11 +767,11 @@
         <v>300</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" ref="G7:G19" si="2">F10</f>
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -783,11 +789,15 @@
         <v>21</v>
       </c>
       <c r="C11" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="D11" s="16">
         <v>3</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -798,7 +808,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="D12" s="8">
@@ -808,11 +818,11 @@
         <v>300</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G10:G14" si="3">F12</f>
         <v>15</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -839,11 +849,11 @@
         <v>600</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -858,7 +868,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="D14" s="10">
@@ -868,11 +878,11 @@
         <v>600</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -887,10 +897,14 @@
         <v>22</v>
       </c>
       <c r="C15" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D15" s="14">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -902,11 +916,15 @@
         <v>23</v>
       </c>
       <c r="C16" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="D16" s="16">
         <v>3</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -917,7 +935,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="D17" s="6">
@@ -927,11 +945,12 @@
         <v>90</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.25</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -942,7 +961,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="D18" s="6">
@@ -952,11 +971,12 @@
         <v>60</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -967,7 +987,7 @@
         <v>26</v>
       </c>
       <c r="C19" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="D19" s="6">
@@ -977,11 +997,12 @@
         <v>40</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1003,7 +1024,7 @@
       </c>
       <c r="G20" s="1">
         <f>SUM(G6:G19)</f>
-        <v>62.5</v>
+        <v>76.566666666666677</v>
       </c>
     </row>
     <row r="24" spans="1:7">

--- a/00_Organsiatorisches/Shots.xlsx
+++ b/00_Organsiatorisches/Shots.xlsx
@@ -590,7 +590,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -704,17 +704,17 @@
       </c>
       <c r="C9" s="8">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D9" s="8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E9" s="7">
         <v>180</v>
       </c>
       <c r="F9" s="7">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -726,17 +726,17 @@
       </c>
       <c r="C10" s="8">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="D10" s="8">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="E10" s="7">
         <v>300</v>
       </c>
       <c r="F10" s="7">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -748,10 +748,10 @@
       </c>
       <c r="C11" s="15">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D11" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -786,17 +786,17 @@
         <v>32</v>
       </c>
       <c r="C13" s="10">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="D13" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" s="9">
         <v>600</v>
       </c>
       <c r="F13" s="9">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>11.333333333333334</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -808,17 +808,17 @@
       </c>
       <c r="C14" s="10">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="D14" s="10">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="E14" s="9">
         <v>600</v>
       </c>
       <c r="F14" s="9">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -847,10 +847,10 @@
       </c>
       <c r="C16" s="15">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D16" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
@@ -924,15 +924,15 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" s="11">
         <f>SUM(C6:C19)</f>
-        <v>1380</v>
+        <v>1238</v>
       </c>
       <c r="D20" s="2">
         <f>SUM(D6:D19)</f>
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F20" s="13">
         <f>SUM(F6:F19)</f>
-        <v>76.566666666666677</v>
+        <v>79.150000000000006</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
